--- a/arrange/planning.xlsx
+++ b/arrange/planning.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>周计划表</t>
   </si>
@@ -962,6 +962,43 @@
     <t>1-2-2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kindle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>行业动态了解</t>
+    </r>
+  </si>
+  <si>
+    <t>晚饭后半个小时～一个小时</t>
+  </si>
+  <si>
     <t>周二</t>
   </si>
   <si>
@@ -977,6 +1014,32 @@
     <t>2-2-2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>投资理财学习，寻找适合自己的基金股票，能够达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>以上的年化率</t>
+    </r>
+  </si>
+  <si>
     <t>周三</t>
   </si>
   <si>
@@ -1031,6 +1094,44 @@
     <t>6-1-2</t>
   </si>
   <si>
+    <t>机械臂技术研发</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7:00am~11:00am
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>保证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>个小时的工作量</t>
+    </r>
+  </si>
+  <si>
     <t>6-1-3</t>
   </si>
   <si>
@@ -1052,6 +1153,84 @@
     <t>7-1-2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>小时以上飞控代码，能够做笔记写总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>研究控制理论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>、为了学习更多比较前言技术
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>、能将自己学到的东西转换为财富
+，如博客、技术指导</t>
+    </r>
+  </si>
+  <si>
     <t>7-1-3</t>
   </si>
   <si>
@@ -1059,6 +1238,41 @@
   </si>
   <si>
     <t>7-2-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>14:00pm~18:00pm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>保证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>个小时的工作量</t>
+    </r>
   </si>
   <si>
     <t>7-2-3</t>
@@ -1191,7 +1405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1234,6 +1448,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1330,7 +1548,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1438,25 +1656,29 @@
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="11.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="79.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
@@ -1480,7 +1702,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1491,7 +1713,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>16</v>
@@ -1504,27 +1726,31 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="81.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>9</v>
@@ -1548,9 +1774,9 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="72.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1559,7 +1785,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>16</v>
@@ -1572,27 +1798,31 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="81.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>9</v>
@@ -1616,7 +1846,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1627,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>16</v>
@@ -1640,27 +1870,31 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="80.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>9</v>
@@ -1684,7 +1918,7 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1695,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>16</v>
@@ -1708,27 +1942,31 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="82.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>9</v>
@@ -1752,16 +1990,20 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="55.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1772,7 +2014,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>16</v>
@@ -1785,7 +2027,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1794,27 +2036,27 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="87.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>9</v>
@@ -1838,16 +2080,20 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="56.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -1858,7 +2104,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>16</v>
@@ -1871,16 +2117,20 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="50.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>

--- a/arrange/planning.xlsx
+++ b/arrange/planning.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>周计划表</t>
   </si>
@@ -30,17 +25,16 @@
         <sz val="10"/>
         <color rgb="FFFF3300"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2017/8/1-2017/12/30
-</t>
+        <charset val="134"/>
+      </rPr>
+      <t>2017/8/1-2017/12/30</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF3300"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>说明：每日上午下午第一优先级的事务必须完成，其余尽量完成。</t>
     </r>
@@ -69,20 +63,19 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>营养早餐：
-</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营养早餐：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF3333"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第一部分必吃：</t>
     </r>
@@ -90,17 +83,16 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>鸡蛋
-</t>
+        <charset val="134"/>
+      </rPr>
+      <t>鸡蛋</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF3333"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第二部分蛋白质补充：</t>
     </r>
@@ -108,7 +100,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>脱脂牛奶一杯或者豆浆一碗</t>
     </r>
@@ -116,7 +108,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -124,17 +116,16 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>豆腐脑一碗
-</t>
+        <charset val="134"/>
+      </rPr>
+      <t>豆腐脑一碗</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF3333"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第三部分碳水化合物：</t>
     </r>
@@ -142,7 +133,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>全面吐司面包两片或者红豆大米粥一碗</t>
     </r>
@@ -150,7 +141,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -158,16 +149,15 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>一个蒸糯玉米
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个蒸糯玉米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -175,7 +165,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>红枣玉米糊糊一碗</t>
     </r>
@@ -183,7 +173,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -191,7 +181,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>鸡蛋煎饼不要薄脆</t>
     </r>
@@ -199,7 +189,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -207,7 +197,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>燕麦粥一碗</t>
     </r>
@@ -215,7 +205,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -223,7 +213,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>黑芝麻红豆粥一碗</t>
     </r>
@@ -231,7 +221,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -239,7 +229,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>绿豆粥一碗</t>
     </r>
@@ -249,7 +239,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>例如：一个鸡蛋</t>
     </r>
@@ -257,7 +247,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>+30</t>
     </r>
@@ -265,16 +255,15 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>克干燕麦片
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>克干燕麦片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -282,7 +271,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>一个苹果</t>
     </r>
@@ -290,7 +279,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -298,7 +287,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>一杯脱脂牛奶这样～</t>
     </r>
@@ -306,20 +295,19 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>营养中餐：
-</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营养中餐：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF3333"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第一部分肉类摄入：</t>
     </r>
@@ -327,7 +315,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>100</t>
     </r>
@@ -335,7 +323,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克瘦肉（瘦鸡肉为主，尽量不吃猪肉）或者</t>
     </r>
@@ -343,7 +331,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>150</t>
     </r>
@@ -351,7 +339,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克鱼</t>
     </r>
@@ -359,7 +347,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/150</t>
     </r>
@@ -367,7 +355,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克虾（</t>
     </r>
@@ -375,7 +363,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>7</t>
     </r>
@@ -383,18 +371,17 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>只）【不吃肉可以吃一份豆腐
-，或者豆花，或者一个鸡蛋白代替蛋白质】
-</t>
+，或者豆花，或者一个鸡蛋白代替蛋白质】</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF3333"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第二部分主食摄入：</t>
     </r>
@@ -402,7 +389,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>粗粮</t>
     </r>
@@ -410,7 +397,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -418,7 +405,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>豆类【煮成粥一碗</t>
     </r>
@@ -426,7 +413,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>350</t>
     </r>
@@ -434,7 +421,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克】或者玉米【一根】</t>
     </r>
@@ -442,7 +429,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -450,7 +437,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>薯类【一个</t>
     </r>
@@ -458,7 +445,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>200</t>
     </r>
@@ -466,16 +453,15 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>克左右】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>克左右】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -483,7 +469,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>燕麦粥【</t>
     </r>
@@ -491,7 +477,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>350</t>
     </r>
@@ -499,7 +485,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克】</t>
     </r>
@@ -507,7 +493,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -515,7 +501,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>全卖面包【两片】</t>
     </r>
@@ -523,7 +509,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -531,7 +517,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>麦片【</t>
     </r>
@@ -539,7 +525,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>35</t>
     </r>
@@ -547,17 +533,16 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>克干】
-</t>
+        <charset val="134"/>
+      </rPr>
+      <t>克干】</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF3333"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第三部分蔬菜摄入：</t>
     </r>
@@ -565,7 +550,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>浅色蔬菜</t>
     </r>
@@ -573,7 +558,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>200</t>
     </r>
@@ -581,7 +566,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克、黄绿色蔬菜</t>
     </r>
@@ -589,7 +574,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>100</t>
     </r>
@@ -597,7 +582,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克
 【每天饮食蔬菜为主，主食为次。蔬菜只要油，酱不多放，可以吃到饱】</t>
@@ -608,7 +593,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -616,7 +601,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>分饱为准，用蔬菜和粗粮提高饱腹度，脂肪类不能超。
 例如主食：</t>
@@ -625,7 +610,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>70</t>
     </r>
@@ -633,7 +618,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克米饭</t>
     </r>
@@ -641,7 +626,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>+20</t>
     </r>
@@ -649,7 +634,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克干燕麦</t>
     </r>
@@ -657,7 +642,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>+2</t>
     </r>
@@ -665,7 +650,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>份清炒素菜
 【水煮绿叶蔬菜不限量】</t>
@@ -674,7 +659,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -682,7 +667,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>肉类</t>
     </r>
@@ -690,7 +675,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -698,7 +683,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>份
 【鸡胸肉半块，或者海鲜</t>
@@ -707,7 +692,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -715,7 +700,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>碟】</t>
     </r>
@@ -732,20 +717,19 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>健身晚餐：
-</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健身晚餐：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF3333"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第一部分主食摄入：</t>
     </r>
@@ -753,7 +737,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>粗粮（豆类</t>
     </r>
@@ -761,7 +745,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -769,7 +753,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>玉米</t>
     </r>
@@ -777,7 +761,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -785,7 +769,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>薯类</t>
     </r>
@@ -793,7 +777,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -801,7 +785,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>燕麦粥</t>
     </r>
@@ -809,7 +793,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -817,7 +801,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>全麦面包</t>
     </r>
@@ -825,7 +809,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -833,17 +817,16 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>麦片）【食用同中午，晚餐可适量减少一点主食量】
-</t>
+        <charset val="134"/>
+      </rPr>
+      <t>麦片）【食用同中午，晚餐可适量减少一点主食量】</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF3333"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>第二部分蔬菜水果：</t>
     </r>
@@ -851,7 +834,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>浅色蔬菜</t>
     </r>
@@ -859,7 +842,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>150</t>
     </r>
@@ -867,7 +850,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克、黄绿色蔬菜</t>
     </r>
@@ -875,7 +858,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>50</t>
     </r>
@@ -883,7 +866,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>克【或者用水果代替蔬菜，苹果一大个加几个小番茄】
 【晚上蔬菜为主，不吃肉类。可以吃小份豆腐或者</t>
@@ -892,7 +875,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1-2</t>
     </r>
@@ -900,7 +883,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>个蛋白补充蛋白】</t>
     </r>
@@ -910,7 +893,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -918,7 +901,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>分饱为准，用蔬菜和粗粮提高饱腹度
 ，晚餐脂肪类不摄入
@@ -928,7 +911,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>30</t>
     </r>
@@ -936,16 +919,15 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>克【晚餐主餐最好是粗粮】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>克【晚餐主餐最好是粗粮】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -953,7 +935,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>清炒素菜两份【水煮不限量】</t>
     </r>
@@ -966,7 +948,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>kindle</t>
     </r>
@@ -974,7 +956,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>阅读</t>
     </r>
@@ -982,7 +964,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -990,7 +972,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>行业动态了解</t>
     </r>
@@ -1018,7 +1000,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>投资理财学习，寻找适合自己的基金股票，能够达到</t>
     </r>
@@ -1026,7 +1008,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5%</t>
     </r>
@@ -1034,7 +1016,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>以上的年化率</t>
     </r>
@@ -1101,16 +1083,15 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7:00am~11:00am
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7:00am~11:00am</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>保证</t>
     </r>
@@ -1118,7 +1099,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1126,7 +1107,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>个小时的工作量</t>
     </r>
@@ -1157,7 +1138,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>学习</t>
     </r>
@@ -1165,7 +1146,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1173,7 +1154,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>小时以上飞控代码，能够做笔记写总结</t>
     </r>
@@ -1181,7 +1162,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1189,7 +1170,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>研究控制理论</t>
     </r>
@@ -1199,7 +1180,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1207,16 +1188,15 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>、为了学习更多比较前言技术
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、为了学习更多比较前言技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1224,7 +1204,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>、能将自己学到的东西转换为财富
 ，如博客、技术指导</t>
@@ -1244,16 +1224,15 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>14:00pm~18:00pm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14:00pm~18:00pm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>保证</t>
     </r>
@@ -1261,7 +1240,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1269,7 +1248,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>个小时的工作量</t>
     </r>
@@ -1282,69 +1261,212 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF3300"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF3300"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF3333"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,205 +1485,899 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3300"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF3333"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF3333"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.57216494845361"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.87628865979382"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.5360824742268"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="102.005154639175"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.479381443299"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.639175257732"/>
+    <col min="1" max="1" width="7.57142857142857"/>
+    <col min="2" max="2" width="6.87619047619048"/>
+    <col min="3" max="3" width="7.53333333333333"/>
+    <col min="4" max="4" width="102.009523809524"/>
+    <col min="5" max="5" width="46.4761904761905"/>
+    <col min="6" max="1025" width="11.6380952380952"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="22.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +2388,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27.35" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +2399,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +2414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="79.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="79.6" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1615,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="112.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="112.75" customHeight="1" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1626,7 +2442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="61.9" customHeight="1" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
@@ -1635,7 +2451,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="61.9" customHeight="1" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -1650,7 +2466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="67.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="67.95" customHeight="1" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
@@ -1663,14 +2479,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="11.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="11.6" customHeight="1" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="79.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="79.6" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1687,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="106.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="106.1" customHeight="1" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1698,7 +2514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="77.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="77.9" customHeight="1" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
@@ -1707,7 +2523,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="72.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="72.95" customHeight="1" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>14</v>
@@ -1722,7 +2538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="82.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="82.9" customHeight="1" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
@@ -1735,14 +2551,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="81.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="81.25" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1759,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="114.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="114.4" customHeight="1" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1770,7 +2586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="54.7" customHeight="1" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
@@ -1779,7 +2595,7 @@
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="72.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="72.95" customHeight="1" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>14</v>
@@ -1794,7 +2610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="57.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="57.2" customHeight="1" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
@@ -1807,14 +2623,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="81.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="81.25" customHeight="1" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
@@ -1831,7 +2647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="105.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="105.3" customHeight="1" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -1842,7 +2658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="55.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="55.55" customHeight="1" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
@@ -1851,7 +2667,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="72.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="72.1" customHeight="1" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>14</v>
@@ -1866,7 +2682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="49.75" customHeight="1" spans="1:5">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -1879,14 +2695,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="80.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="80.4" customHeight="1" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -1903,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="105.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="105.3" customHeight="1" spans="1:5">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -1914,7 +2730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="62.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="62.15" customHeight="1" spans="1:5">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
@@ -1923,7 +2739,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="75.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="75.45" customHeight="1" spans="1:5">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>14</v>
@@ -1938,7 +2754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="52.2" customHeight="1" spans="1:5">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
@@ -1951,14 +2767,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="82.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="82.9" customHeight="1" spans="1:5">
       <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
@@ -1975,7 +2791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="118.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="118.55" customHeight="1" spans="1:5">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -1986,7 +2802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="53.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="53.05" customHeight="1" spans="1:5">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
@@ -1999,7 +2815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="55.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="55.55" customHeight="1" spans="1:5">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
@@ -2008,7 +2824,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="72.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="72.95" customHeight="1" spans="1:5">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>14</v>
@@ -2023,7 +2839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="51.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="51.4" customHeight="1" spans="1:5">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
@@ -2032,7 +2848,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="46.4" customHeight="1" spans="1:5">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
@@ -2041,14 +2857,14 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" customFormat="false" ht="87.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="87.05" customHeight="1" spans="1:5">
       <c r="A42" s="5" t="s">
         <v>51</v>
       </c>
@@ -2065,7 +2881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="106.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="106.1" customHeight="1" spans="1:5">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -2076,7 +2892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="55.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="55.55" customHeight="1" spans="1:5">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
@@ -2089,7 +2905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="56.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="56.35" customHeight="1" spans="1:5">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
@@ -2098,7 +2914,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="74.6" customHeight="1" spans="1:5">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
         <v>14</v>
@@ -2113,7 +2929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="55.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" ht="55.55" customHeight="1" spans="1:5">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6" t="s">
@@ -2126,7 +2942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="50.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="50.55" customHeight="1" spans="1:5">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
@@ -2140,45 +2956,44 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A41:E41"/>
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A42:A48"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B46:B48"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>

--- a/arrange/planning.xlsx
+++ b/arrange/planning.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git-work-space\nephen.github.io\arrange\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="990" activeTab="1"/>
+    <workbookView visibility="hidden" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
   <si>
     <t>周计划表</t>
   </si>
@@ -25,7 +31,7 @@
         <sz val="10"/>
         <color rgb="FFFF3300"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2017/8/1-2017/12/30</t>
     </r>
@@ -108,7 +114,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -141,7 +147,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -157,7 +163,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -173,7 +179,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -189,7 +195,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -205,7 +211,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -221,7 +227,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -247,7 +253,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+30</t>
     </r>
@@ -263,7 +269,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+</t>
     </r>
@@ -279,7 +285,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+</t>
     </r>
@@ -315,7 +321,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>100</t>
     </r>
@@ -331,7 +337,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>150</t>
     </r>
@@ -347,7 +353,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/150</t>
     </r>
@@ -363,7 +369,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>7</t>
     </r>
@@ -397,7 +403,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -413,7 +419,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>350</t>
     </r>
@@ -429,7 +435,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -445,7 +451,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>200</t>
     </r>
@@ -461,7 +467,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -477,7 +483,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>350</t>
     </r>
@@ -493,7 +499,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -509,7 +515,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -525,7 +531,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>35</t>
     </r>
@@ -558,7 +564,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>200</t>
     </r>
@@ -574,7 +580,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>100</t>
     </r>
@@ -593,7 +599,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>8</t>
     </r>
@@ -610,7 +616,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>70</t>
     </r>
@@ -626,7 +632,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+20</t>
     </r>
@@ -642,7 +648,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+2</t>
     </r>
@@ -659,7 +665,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+</t>
     </r>
@@ -675,7 +681,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -692,7 +698,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -745,7 +751,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -761,7 +767,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -777,7 +783,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -793,7 +799,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -809,7 +815,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -842,7 +848,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>150</t>
     </r>
@@ -858,7 +864,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50</t>
     </r>
@@ -875,7 +881,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1-2</t>
     </r>
@@ -893,7 +899,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>8</t>
     </r>
@@ -911,7 +917,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>30</t>
     </r>
@@ -927,7 +933,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+</t>
     </r>
@@ -948,7 +954,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>kindle</t>
     </r>
@@ -964,7 +970,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1008,7 +1014,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5%</t>
     </r>
@@ -1083,7 +1089,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>7:00am~11:00am</t>
     </r>
@@ -1099,7 +1105,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1146,7 +1152,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1162,7 +1168,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1180,7 +1186,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1196,7 +1202,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1224,7 +1230,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>14:00pm~18:00pm</t>
     </r>
@@ -1240,7 +1246,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1255,20 +1261,189 @@
   </si>
   <si>
     <t>7-2-3</t>
+  </si>
+  <si>
+    <t>彩礼10w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>首付35w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>年底奖金B+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8*7K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>存2K*5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018
+2,3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-2018
+9,10,11,12,1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资要求15K以上</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力拿到的奖金</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019
+2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019
+3-12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15K*10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子首付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职需要继续待一到两个月？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一年比较关键！</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>年后的工作可能会税后9K？可以存6K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*2K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要每个月存9K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9K*10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2019
+4-1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6w+13.2w
+=19.8w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.8+15
+=34.8w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升职或者跳槽？薪资需要20K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要每个月存1K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1K*10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019
+2-12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业有起色，开始进账</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25K*11</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6+2.2+27.5
+=36.3w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩尼旅程：工作版</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩尼旅程：创业版</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>艰苦创业，卖出一定销量能有一定收入</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1284,174 +1459,18 @@
       <sz val="10"/>
       <color rgb="FFFF3300"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1465,8 +1484,25 @@
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1487,192 +1523,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1695,261 +1551,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1961,68 +1576,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2095,6 +1691,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2357,617 +1956,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="7.57142857142857"/>
-    <col min="2" max="2" width="6.87619047619048"/>
-    <col min="3" max="3" width="7.53333333333333"/>
-    <col min="4" max="4" width="102.009523809524"/>
-    <col min="5" max="5" width="46.4761904761905"/>
-    <col min="6" max="1025" width="11.6380952380952"/>
+    <col min="1" max="1" width="7.5703125"/>
+    <col min="2" max="2" width="6.85546875"/>
+    <col min="3" max="3" width="7.5703125"/>
+    <col min="4" max="4" width="102"/>
+    <col min="5" max="5" width="46.42578125"/>
+    <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="22.5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="27.35" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="27.4" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="79.6" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" ht="79.7" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="112.75" customHeight="1" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+    <row r="5" spans="1:7" ht="112.7" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="61.9" customHeight="1" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:7" ht="61.9" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="61.9" customHeight="1" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="61.9" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="67.95" customHeight="1" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:7" ht="67.900000000000006" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="11.6" customHeight="1" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="79.6" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
+    <row r="9" spans="1:7" ht="11.65" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="79.7" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="106.1" customHeight="1" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+    <row r="11" spans="1:7" ht="106.15" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="77.9" customHeight="1" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="1:7" ht="77.849999999999994" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="72.95" customHeight="1" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="72.95" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" ht="82.9" customHeight="1" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="1:7" ht="82.9" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" ht="81.25" customHeight="1" spans="1:5">
-      <c r="A16" s="5" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="81.2" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="114.4" customHeight="1" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
+    <row r="17" spans="1:5" ht="114.4" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="54.7" customHeight="1" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="1:5" ht="54.75" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="72.95" customHeight="1" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="72.95" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" ht="57.2" customHeight="1" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="s">
+    <row r="20" spans="1:5" ht="57.2" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" ht="81.25" customHeight="1" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="81.2" customHeight="1">
+      <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="105.3" customHeight="1" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
+    <row r="23" spans="1:5" ht="105.4" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="55.55" customHeight="1" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="s">
+    <row r="24" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="72.1" customHeight="1" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="72.2" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" ht="49.75" customHeight="1" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
+    <row r="26" spans="1:5" ht="49.7" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" ht="80.4" customHeight="1" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="80.45" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="105.3" customHeight="1" spans="1:5">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7" t="s">
+    <row r="29" spans="1:5" ht="105.4" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="62.15" customHeight="1" spans="1:5">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="s">
+    <row r="30" spans="1:5" ht="62.1" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="75.45" customHeight="1" spans="1:5">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="75.400000000000006" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" ht="52.2" customHeight="1" spans="1:5">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
+    <row r="32" spans="1:5" ht="52.15" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" ht="82.9" customHeight="1" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" ht="82.9" customHeight="1">
+      <c r="A34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="118.55" customHeight="1" spans="1:5">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7" t="s">
+    <row r="35" spans="1:5" ht="118.5" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="53.05" customHeight="1" spans="1:5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6" t="s">
+    <row r="36" spans="1:5" ht="53.1" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" ht="55.55" customHeight="1" spans="1:5">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6" t="s">
+    <row r="37" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" ht="72.95" customHeight="1" spans="1:5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="72.95" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" ht="51.4" customHeight="1" spans="1:5">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6" t="s">
+    <row r="39" spans="1:5" ht="51.4" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" ht="46.4" customHeight="1" spans="1:5">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="46.35" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" ht="87.05" customHeight="1" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="87" customHeight="1">
+      <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" ht="106.1" customHeight="1" spans="1:5">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7" t="s">
+    <row r="43" spans="1:5" ht="106.15" customHeight="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" ht="55.55" customHeight="1" spans="1:5">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6" t="s">
+    <row r="44" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" ht="56.35" customHeight="1" spans="1:5">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6" t="s">
+    <row r="45" spans="1:5" ht="56.45" customHeight="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" ht="74.6" customHeight="1" spans="1:5">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" ht="74.650000000000006" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" ht="55.55" customHeight="1" spans="1:5">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6" t="s">
+    <row r="47" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" ht="50.55" customHeight="1" spans="1:5">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6" t="s">
+    <row r="48" spans="1:5" ht="50.65" customHeight="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="A42:A48"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -2983,19 +2569,317 @@
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A34:A40"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane xSplit="6" ySplit="12" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75">
+      <c r="A1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="D2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24">
+      <c r="D3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="D4" s="20">
+        <v>43132</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="34.5" customHeight="1">
+      <c r="D5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="24">
+      <c r="D6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" customHeight="1">
+      <c r="D7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="24">
+      <c r="D8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75">
+      <c r="D14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24">
+      <c r="D16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17" s="20">
+        <v>43132</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="4:9" ht="36">
+      <c r="D18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="4:9" ht="36">
+      <c r="D19" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="4:9" ht="24">
+      <c r="D20" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D14:I14"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>